--- a/src/template_excel/Inf SIVICOF_PLANTILLA.xlsx
+++ b/src/template_excel/Inf SIVICOF_PLANTILLA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="1710" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="14186 CB-0008  INFORME SOBR..." sheetId="1" state="visible" r:id="rId1"/>
@@ -1265,32 +1265,32 @@
   </sheetPr>
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col width="9.109375" customWidth="1" min="1" max="1"/>
-    <col width="10.5546875" customWidth="1" min="2" max="2"/>
+    <col width="9.140625" customWidth="1" min="1" max="1"/>
+    <col width="10.5703125" customWidth="1" min="2" max="2"/>
     <col width="32" customWidth="1" min="3" max="3"/>
-    <col width="17.33203125" customWidth="1" min="4" max="4"/>
-    <col width="20.33203125" customWidth="1" min="5" max="5"/>
+    <col width="17.28515625" customWidth="1" min="4" max="4"/>
+    <col width="20.28515625" customWidth="1" min="5" max="5"/>
     <col width="43" customWidth="1" min="6" max="6"/>
     <col width="41" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="38.109375" customWidth="1" min="9" max="9"/>
-    <col width="28.5546875" customWidth="1" min="10" max="10"/>
+    <col width="38.140625" customWidth="1" min="9" max="9"/>
+    <col width="28.5703125" customWidth="1" min="10" max="10"/>
     <col width="19" customWidth="1" min="11" max="11"/>
     <col width="64" customWidth="1" min="12" max="12"/>
     <col width="42" customWidth="1" min="13" max="13"/>
     <col width="21" customWidth="1" min="14" max="14"/>
     <col width="25" customWidth="1" min="15" max="15"/>
     <col width="26" customWidth="1" min="16" max="16"/>
-    <col width="21.5546875" customWidth="1" min="17" max="17"/>
+    <col width="21.5703125" customWidth="1" min="17" max="17"/>
     <col width="26" customWidth="1" min="18" max="18"/>
     <col width="24" customWidth="1" min="19" max="19"/>
-    <col width="19.88671875" customWidth="1" min="20" max="20"/>
+    <col width="19.85546875" customWidth="1" min="20" max="20"/>
     <col width="20" customWidth="1" min="21" max="21"/>
     <col width="19" customWidth="1" min="22" max="22"/>
     <col width="12" customWidth="1" min="23" max="23"/>
@@ -1577,93 +1577,27 @@
       <c r="A11" s="59" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="56" t="inlineStr">
-        <is>
-          <t>FILA_1</t>
-        </is>
-      </c>
-      <c r="C11" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D11" s="35" t="inlineStr">
-        <is>
-          <t>9 9. Otra</t>
-        </is>
-      </c>
-      <c r="E11" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F11" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G11" s="35" t="inlineStr">
-        <is>
-          <t>5 Alianza Fiduciaria S.A.</t>
-        </is>
-      </c>
-      <c r="H11" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I11" s="35" t="n">
-        <v>7000000000</v>
-      </c>
-      <c r="J11" s="36" t="n">
-        <v>354411117226</v>
-      </c>
-      <c r="K11" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L11" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Otros (Especificar en Observaciones)</t>
-        </is>
-      </c>
-      <c r="M11" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N11" s="37" t="n">
-        <v>39119</v>
-      </c>
-      <c r="O11" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P11" s="37" t="n">
-        <v>45991</v>
-      </c>
-      <c r="Q11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="35" t="n">
-        <v>22981632</v>
-      </c>
-      <c r="T11" s="35" t="n">
-        <v>88903543</v>
-      </c>
-      <c r="U11" s="35" t="n">
-        <v>9084932</v>
-      </c>
-      <c r="V11" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2022:  4. En cuanto a la columna 76  se reporta la totalidad de gastos y costos del mes correspondiente; 5. En cuanto a la columna 8, Otra= equipamento; 6. En cuanto a la columna 40 Otro= Activo monetario+Bienes Inmuebles+Bienes en especie</t>
-        </is>
-      </c>
+      <c r="B11" s="56" t="n"/>
+      <c r="C11" s="35" t="n"/>
+      <c r="D11" s="35" t="n"/>
+      <c r="E11" s="35" t="n"/>
+      <c r="F11" s="35" t="n"/>
+      <c r="G11" s="35" t="n"/>
+      <c r="H11" s="35" t="n"/>
+      <c r="I11" s="35" t="n"/>
+      <c r="J11" s="36" t="n"/>
+      <c r="K11" s="35" t="n"/>
+      <c r="L11" s="35" t="n"/>
+      <c r="M11" s="35" t="n"/>
+      <c r="N11" s="37" t="n"/>
+      <c r="O11" s="35" t="n"/>
+      <c r="P11" s="37" t="n"/>
+      <c r="Q11" s="35" t="n"/>
+      <c r="R11" s="35" t="n"/>
+      <c r="S11" s="35" t="n"/>
+      <c r="T11" s="35" t="n"/>
+      <c r="U11" s="35" t="n"/>
+      <c r="V11" s="35" t="n"/>
       <c r="W11" s="38" t="n"/>
       <c r="X11" s="38" t="n"/>
       <c r="Y11" s="39" t="n"/>
@@ -1685,93 +1619,27 @@
       <c r="A12" s="59" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="56" t="inlineStr">
-        <is>
-          <t>FILA_2</t>
-        </is>
-      </c>
-      <c r="C12" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D12" s="35" t="inlineStr">
-        <is>
-          <t>9 9. Otra</t>
-        </is>
-      </c>
-      <c r="E12" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F12" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G12" s="35" t="inlineStr">
-        <is>
-          <t>5 Alianza Fiduciaria S.A.</t>
-        </is>
-      </c>
-      <c r="H12" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I12" s="35" t="n">
-        <v>800000000</v>
-      </c>
-      <c r="J12" s="36" t="n">
-        <v>39061758906</v>
-      </c>
-      <c r="K12" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L12" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Otros (Especificar en Observaciones)</t>
-        </is>
-      </c>
-      <c r="M12" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N12" s="37" t="n">
-        <v>40897</v>
-      </c>
-      <c r="O12" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P12" s="37" t="n">
-        <v>46387</v>
-      </c>
-      <c r="Q12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="35" t="n">
-        <v>75127531</v>
-      </c>
-      <c r="T12" s="35" t="n">
-        <v>349688267</v>
-      </c>
-      <c r="U12" s="35" t="n">
-        <v>8071886</v>
-      </c>
-      <c r="V12" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2022:  4. En cuanto a la columna 76  se reporta la totalidad de gastos y costos del mes correspondiente; 5. En cuanto a la columna 8, Otra= equipamento; 6. En cuanto a la columna 40 Otro= Activo monetario+Bienes Inmuebles+Bienes en especie</t>
-        </is>
-      </c>
+      <c r="B12" s="56" t="n"/>
+      <c r="C12" s="35" t="n"/>
+      <c r="D12" s="35" t="n"/>
+      <c r="E12" s="35" t="n"/>
+      <c r="F12" s="35" t="n"/>
+      <c r="G12" s="35" t="n"/>
+      <c r="H12" s="35" t="n"/>
+      <c r="I12" s="35" t="n"/>
+      <c r="J12" s="36" t="n"/>
+      <c r="K12" s="35" t="n"/>
+      <c r="L12" s="35" t="n"/>
+      <c r="M12" s="35" t="n"/>
+      <c r="N12" s="37" t="n"/>
+      <c r="O12" s="35" t="n"/>
+      <c r="P12" s="37" t="n"/>
+      <c r="Q12" s="35" t="n"/>
+      <c r="R12" s="35" t="n"/>
+      <c r="S12" s="35" t="n"/>
+      <c r="T12" s="35" t="n"/>
+      <c r="U12" s="35" t="n"/>
+      <c r="V12" s="35" t="n"/>
       <c r="W12" s="38" t="n"/>
       <c r="X12" s="38" t="n"/>
       <c r="Y12" s="39" t="n"/>
@@ -1793,93 +1661,27 @@
       <c r="A13" s="59" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="56" t="inlineStr">
-        <is>
-          <t>FILA_3</t>
-        </is>
-      </c>
-      <c r="C13" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D13" s="35" t="inlineStr">
-        <is>
-          <t>9 9. Otra</t>
-        </is>
-      </c>
-      <c r="E13" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F13" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G13" s="35" t="inlineStr">
-        <is>
-          <t>5 Alianza Fiduciaria S.A.</t>
-        </is>
-      </c>
-      <c r="H13" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I13" s="35" t="n">
-        <v>170156000</v>
-      </c>
-      <c r="J13" s="36" t="n">
-        <v>14302503410</v>
-      </c>
-      <c r="K13" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L13" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Otros (Especificar en Observaciones)</t>
-        </is>
-      </c>
-      <c r="M13" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N13" s="37" t="n">
-        <v>42709</v>
-      </c>
-      <c r="O13" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P13" s="37" t="n">
-        <v>45900</v>
-      </c>
-      <c r="Q13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="35" t="n">
-        <v>94352163</v>
-      </c>
-      <c r="T13" s="35" t="n">
-        <v>443239449</v>
-      </c>
-      <c r="U13" s="35" t="n">
-        <v>65279078</v>
-      </c>
-      <c r="V13" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2022:  4. En cuanto a la columna 76  se reporta la totalidad de gastos y costos del mes correspondiente; 5. En cuanto a la columna 8, Otra= equipamento; 6. En cuanto a la columna 40 Otro= Activo monetario+Bienes Inmuebles+Bienes en especie</t>
-        </is>
-      </c>
+      <c r="B13" s="56" t="n"/>
+      <c r="C13" s="35" t="n"/>
+      <c r="D13" s="35" t="n"/>
+      <c r="E13" s="35" t="n"/>
+      <c r="F13" s="35" t="n"/>
+      <c r="G13" s="35" t="n"/>
+      <c r="H13" s="35" t="n"/>
+      <c r="I13" s="35" t="n"/>
+      <c r="J13" s="36" t="n"/>
+      <c r="K13" s="35" t="n"/>
+      <c r="L13" s="35" t="n"/>
+      <c r="M13" s="35" t="n"/>
+      <c r="N13" s="37" t="n"/>
+      <c r="O13" s="35" t="n"/>
+      <c r="P13" s="37" t="n"/>
+      <c r="Q13" s="35" t="n"/>
+      <c r="R13" s="35" t="n"/>
+      <c r="S13" s="35" t="n"/>
+      <c r="T13" s="35" t="n"/>
+      <c r="U13" s="35" t="n"/>
+      <c r="V13" s="35" t="n"/>
       <c r="W13" s="38" t="n"/>
       <c r="X13" s="38" t="n"/>
       <c r="Y13" s="39" t="n"/>
@@ -1901,93 +1703,27 @@
       <c r="A14" s="59" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="56" t="inlineStr">
-        <is>
-          <t>FILA_4</t>
-        </is>
-      </c>
-      <c r="C14" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D14" s="35" t="inlineStr">
-        <is>
-          <t>9 9. Otra</t>
-        </is>
-      </c>
-      <c r="E14" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F14" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G14" s="35" t="inlineStr">
-        <is>
-          <t>5 Alianza Fiduciaria S.A.</t>
-        </is>
-      </c>
-      <c r="H14" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I14" s="35" t="n">
-        <v>4000360163</v>
-      </c>
-      <c r="J14" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L14" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Activos Monetarios</t>
-        </is>
-      </c>
-      <c r="M14" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N14" s="37" t="n">
-        <v>43455</v>
-      </c>
-      <c r="O14" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P14" s="37" t="n">
-        <v>45688</v>
-      </c>
-      <c r="Q14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2022:  4. En cuanto a la columna 76  se reporta la totalidad de gastos y costos del mes correspondiente; 5. En cuanto a la columna 8, Otra= equipamento</t>
-        </is>
-      </c>
+      <c r="B14" s="56" t="n"/>
+      <c r="C14" s="35" t="n"/>
+      <c r="D14" s="35" t="n"/>
+      <c r="E14" s="35" t="n"/>
+      <c r="F14" s="35" t="n"/>
+      <c r="G14" s="35" t="n"/>
+      <c r="H14" s="35" t="n"/>
+      <c r="I14" s="35" t="n"/>
+      <c r="J14" s="36" t="n"/>
+      <c r="K14" s="35" t="n"/>
+      <c r="L14" s="35" t="n"/>
+      <c r="M14" s="35" t="n"/>
+      <c r="N14" s="37" t="n"/>
+      <c r="O14" s="35" t="n"/>
+      <c r="P14" s="37" t="n"/>
+      <c r="Q14" s="35" t="n"/>
+      <c r="R14" s="35" t="n"/>
+      <c r="S14" s="35" t="n"/>
+      <c r="T14" s="35" t="n"/>
+      <c r="U14" s="35" t="n"/>
+      <c r="V14" s="35" t="n"/>
       <c r="W14" s="38" t="n"/>
       <c r="X14" s="38" t="n"/>
       <c r="Y14" s="39" t="n"/>
@@ -2009,93 +1745,27 @@
       <c r="A15" s="59" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="56" t="inlineStr">
-        <is>
-          <t>FILA_5</t>
-        </is>
-      </c>
-      <c r="C15" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D15" s="35" t="inlineStr">
-        <is>
-          <t>9 9. Otra</t>
-        </is>
-      </c>
-      <c r="E15" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F15" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G15" s="35" t="inlineStr">
-        <is>
-          <t>5 Alianza Fiduciaria S.A.</t>
-        </is>
-      </c>
-      <c r="H15" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I15" s="35" t="n">
-        <v>1168590739</v>
-      </c>
-      <c r="J15" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L15" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Activos Monetarios</t>
-        </is>
-      </c>
-      <c r="M15" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N15" s="37" t="n">
-        <v>43455</v>
-      </c>
-      <c r="O15" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P15" s="37" t="n">
-        <v>45315</v>
-      </c>
-      <c r="Q15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2022:  4. En cuanto a la columna 76  se reporta la totalidad de gastos y costos del mes correspondiente; 5. En cuanto a la columna 8, Otra= equipamento</t>
-        </is>
-      </c>
+      <c r="B15" s="56" t="n"/>
+      <c r="C15" s="35" t="n"/>
+      <c r="D15" s="35" t="n"/>
+      <c r="E15" s="35" t="n"/>
+      <c r="F15" s="35" t="n"/>
+      <c r="G15" s="35" t="n"/>
+      <c r="H15" s="35" t="n"/>
+      <c r="I15" s="35" t="n"/>
+      <c r="J15" s="36" t="n"/>
+      <c r="K15" s="35" t="n"/>
+      <c r="L15" s="35" t="n"/>
+      <c r="M15" s="35" t="n"/>
+      <c r="N15" s="37" t="n"/>
+      <c r="O15" s="35" t="n"/>
+      <c r="P15" s="37" t="n"/>
+      <c r="Q15" s="35" t="n"/>
+      <c r="R15" s="35" t="n"/>
+      <c r="S15" s="35" t="n"/>
+      <c r="T15" s="35" t="n"/>
+      <c r="U15" s="35" t="n"/>
+      <c r="V15" s="35" t="n"/>
       <c r="W15" s="38" t="n"/>
       <c r="X15" s="38" t="n"/>
       <c r="Y15" s="39" t="n"/>
@@ -2117,93 +1787,27 @@
       <c r="A16" s="59" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="56" t="inlineStr">
-        <is>
-          <t>FILA_6</t>
-        </is>
-      </c>
-      <c r="C16" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D16" s="35" t="inlineStr">
-        <is>
-          <t>9 9. Otra</t>
-        </is>
-      </c>
-      <c r="E16" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F16" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G16" s="35" t="inlineStr">
-        <is>
-          <t>5 Alianza Fiduciaria S.A.</t>
-        </is>
-      </c>
-      <c r="H16" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I16" s="35" t="n">
-        <v>1963310079</v>
-      </c>
-      <c r="J16" s="36" t="n">
-        <v>1242509085</v>
-      </c>
-      <c r="K16" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L16" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Activos Monetarios</t>
-        </is>
-      </c>
-      <c r="M16" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N16" s="37" t="n">
-        <v>43455</v>
-      </c>
-      <c r="O16" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P16" s="37" t="n">
-        <v>45900</v>
-      </c>
-      <c r="Q16" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="35" t="n">
-        <v>7942812</v>
-      </c>
-      <c r="T16" s="35" t="n">
-        <v>37180725</v>
-      </c>
-      <c r="U16" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2022:  4. En cuanto a la columna 76  se reporta la totalidad de gastos y costos del mes correspondiente; 5. En cuanto a la columna 8, Otra= equipamento</t>
-        </is>
-      </c>
+      <c r="B16" s="56" t="n"/>
+      <c r="C16" s="35" t="n"/>
+      <c r="D16" s="35" t="n"/>
+      <c r="E16" s="35" t="n"/>
+      <c r="F16" s="35" t="n"/>
+      <c r="G16" s="35" t="n"/>
+      <c r="H16" s="35" t="n"/>
+      <c r="I16" s="35" t="n"/>
+      <c r="J16" s="36" t="n"/>
+      <c r="K16" s="35" t="n"/>
+      <c r="L16" s="35" t="n"/>
+      <c r="M16" s="35" t="n"/>
+      <c r="N16" s="37" t="n"/>
+      <c r="O16" s="35" t="n"/>
+      <c r="P16" s="37" t="n"/>
+      <c r="Q16" s="35" t="n"/>
+      <c r="R16" s="35" t="n"/>
+      <c r="S16" s="35" t="n"/>
+      <c r="T16" s="35" t="n"/>
+      <c r="U16" s="35" t="n"/>
+      <c r="V16" s="35" t="n"/>
       <c r="W16" s="38" t="n"/>
       <c r="X16" s="38" t="n"/>
       <c r="Y16" s="39" t="n"/>
@@ -2225,94 +1829,27 @@
       <c r="A17" s="59" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="56" t="inlineStr">
-        <is>
-          <t>FILA_7</t>
-        </is>
-      </c>
-      <c r="C17" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D17" s="35" t="inlineStr">
-        <is>
-          <t>9 9. Otra</t>
-        </is>
-      </c>
-      <c r="E17" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F17" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G17" s="35" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H17" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I17" s="35" t="n">
-        <v>14800000000</v>
-      </c>
-      <c r="J17" s="36" t="n">
-        <v>30527147710</v>
-      </c>
-      <c r="K17" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L17" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Activos Monetarios</t>
-        </is>
-      </c>
-      <c r="M17" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N17" s="37" t="n">
-        <v>42026</v>
-      </c>
-      <c r="O17" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P17" s="37" t="n">
-        <v>46568</v>
-      </c>
-      <c r="Q17" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="35" t="n">
-        <v>270850845</v>
-      </c>
-      <c r="T17" s="35">
-        <f>930099418+S17</f>
-        <v/>
-      </c>
-      <c r="U17" s="40" t="n">
-        <v>6174422</v>
-      </c>
-      <c r="V17" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2022:  4. En cuanto a la columna 76  se reporta la totalidad de gastos y costos del mes correspondiente; 5. En cuanto a la columna 8, Otra= equipamento</t>
-        </is>
-      </c>
+      <c r="B17" s="56" t="n"/>
+      <c r="C17" s="35" t="n"/>
+      <c r="D17" s="35" t="n"/>
+      <c r="E17" s="35" t="n"/>
+      <c r="F17" s="35" t="n"/>
+      <c r="G17" s="35" t="n"/>
+      <c r="H17" s="35" t="n"/>
+      <c r="I17" s="35" t="n"/>
+      <c r="J17" s="36" t="n"/>
+      <c r="K17" s="35" t="n"/>
+      <c r="L17" s="35" t="n"/>
+      <c r="M17" s="35" t="n"/>
+      <c r="N17" s="37" t="n"/>
+      <c r="O17" s="35" t="n"/>
+      <c r="P17" s="37" t="n"/>
+      <c r="Q17" s="35" t="n"/>
+      <c r="R17" s="35" t="n"/>
+      <c r="S17" s="35" t="n"/>
+      <c r="T17" s="35" t="n"/>
+      <c r="U17" s="40" t="n"/>
+      <c r="V17" s="35" t="n"/>
       <c r="W17" s="38" t="n"/>
       <c r="X17" s="38" t="n"/>
       <c r="Y17" s="39" t="n"/>
@@ -2334,93 +1871,27 @@
       <c r="A18" s="59" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="56" t="inlineStr">
-        <is>
-          <t>FILA_8</t>
-        </is>
-      </c>
-      <c r="C18" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D18" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Vivienda</t>
-        </is>
-      </c>
-      <c r="E18" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F18" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G18" s="35" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H18" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I18" s="35" t="n">
-        <v>10552046816</v>
-      </c>
-      <c r="J18" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L18" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Bienes Inmuebles</t>
-        </is>
-      </c>
-      <c r="M18" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N18" s="37" t="n">
-        <v>43465</v>
-      </c>
-      <c r="O18" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P18" s="37" t="n">
-        <v>45199</v>
-      </c>
-      <c r="Q18" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2022:  4. En cuanto a la columna 76  se reporta la totalidad de gastos y costos del mes correspondiente.</t>
-        </is>
-      </c>
+      <c r="B18" s="56" t="n"/>
+      <c r="C18" s="35" t="n"/>
+      <c r="D18" s="35" t="n"/>
+      <c r="E18" s="35" t="n"/>
+      <c r="F18" s="35" t="n"/>
+      <c r="G18" s="35" t="n"/>
+      <c r="H18" s="35" t="n"/>
+      <c r="I18" s="35" t="n"/>
+      <c r="J18" s="36" t="n"/>
+      <c r="K18" s="35" t="n"/>
+      <c r="L18" s="35" t="n"/>
+      <c r="M18" s="35" t="n"/>
+      <c r="N18" s="37" t="n"/>
+      <c r="O18" s="35" t="n"/>
+      <c r="P18" s="37" t="n"/>
+      <c r="Q18" s="35" t="n"/>
+      <c r="R18" s="35" t="n"/>
+      <c r="S18" s="35" t="n"/>
+      <c r="T18" s="35" t="n"/>
+      <c r="U18" s="35" t="n"/>
+      <c r="V18" s="35" t="n"/>
       <c r="W18" s="38" t="n"/>
       <c r="X18" s="38" t="n"/>
       <c r="Y18" s="39" t="n"/>
@@ -2442,93 +1913,27 @@
       <c r="A19" s="59" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="56" t="inlineStr">
-        <is>
-          <t>FILA_9</t>
-        </is>
-      </c>
-      <c r="C19" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D19" s="35" t="inlineStr">
-        <is>
-          <t>9 9. Otra</t>
-        </is>
-      </c>
-      <c r="E19" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F19" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G19" s="35" t="inlineStr">
-        <is>
-          <t>5 Alianza Fiduciaria S.A.</t>
-        </is>
-      </c>
-      <c r="H19" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I19" s="35" t="n">
-        <v>2406581000</v>
-      </c>
-      <c r="J19" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L19" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Otros (Especificar en Observaciones)</t>
-        </is>
-      </c>
-      <c r="M19" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N19" s="37" t="n">
-        <v>39443</v>
-      </c>
-      <c r="O19" s="35" t="inlineStr">
-        <is>
-          <t>7 7. Liquidación</t>
-        </is>
-      </c>
-      <c r="P19" s="37" t="n">
-        <v>44489</v>
-      </c>
-      <c r="Q19" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2023: 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente; 5. En cuanto a la columna 8, Otra= equipamento; 6. En cuanto a la columna 40 Otro= Activo monetario+Bienes Inmuebles+Bienes en especie; 7. En cuanto a la columna 52 Liquidación= De acuerdo a lo establecido contractualmente tiene una periocidad para su liquidación.</t>
-        </is>
-      </c>
+      <c r="B19" s="56" t="n"/>
+      <c r="C19" s="35" t="n"/>
+      <c r="D19" s="35" t="n"/>
+      <c r="E19" s="35" t="n"/>
+      <c r="F19" s="35" t="n"/>
+      <c r="G19" s="35" t="n"/>
+      <c r="H19" s="35" t="n"/>
+      <c r="I19" s="35" t="n"/>
+      <c r="J19" s="36" t="n"/>
+      <c r="K19" s="35" t="n"/>
+      <c r="L19" s="35" t="n"/>
+      <c r="M19" s="35" t="n"/>
+      <c r="N19" s="37" t="n"/>
+      <c r="O19" s="35" t="n"/>
+      <c r="P19" s="37" t="n"/>
+      <c r="Q19" s="35" t="n"/>
+      <c r="R19" s="36" t="n"/>
+      <c r="S19" s="35" t="n"/>
+      <c r="T19" s="35" t="n"/>
+      <c r="U19" s="35" t="n"/>
+      <c r="V19" s="35" t="n"/>
       <c r="W19" s="39" t="n"/>
       <c r="X19" s="39" t="n"/>
       <c r="Y19" s="39" t="n"/>
@@ -2550,93 +1955,27 @@
       <c r="A20" s="59" t="n">
         <v>10</v>
       </c>
-      <c r="B20" s="56" t="inlineStr">
-        <is>
-          <t>FILA_10</t>
-        </is>
-      </c>
-      <c r="C20" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D20" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Vivienda</t>
-        </is>
-      </c>
-      <c r="E20" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F20" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G20" s="35" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H20" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I20" s="35" t="n">
-        <v>642000000</v>
-      </c>
-      <c r="J20" s="36" t="n">
-        <v>2555643643</v>
-      </c>
-      <c r="K20" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L20" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Bienes Inmuebles</t>
-        </is>
-      </c>
-      <c r="M20" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N20" s="37" t="n">
-        <v>41904</v>
-      </c>
-      <c r="O20" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P20" s="37" t="n">
-        <v>46568</v>
-      </c>
-      <c r="Q20" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="41" t="n">
-        <v>4337961</v>
-      </c>
-      <c r="T20" s="41" t="n">
-        <v>18892066</v>
-      </c>
-      <c r="U20" s="41" t="n">
-        <v>32088</v>
-      </c>
-      <c r="V20" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2023. 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente.</t>
-        </is>
-      </c>
+      <c r="B20" s="56" t="n"/>
+      <c r="C20" s="35" t="n"/>
+      <c r="D20" s="35" t="n"/>
+      <c r="E20" s="35" t="n"/>
+      <c r="F20" s="35" t="n"/>
+      <c r="G20" s="35" t="n"/>
+      <c r="H20" s="35" t="n"/>
+      <c r="I20" s="35" t="n"/>
+      <c r="J20" s="36" t="n"/>
+      <c r="K20" s="35" t="n"/>
+      <c r="L20" s="35" t="n"/>
+      <c r="M20" s="35" t="n"/>
+      <c r="N20" s="37" t="n"/>
+      <c r="O20" s="35" t="n"/>
+      <c r="P20" s="37" t="n"/>
+      <c r="Q20" s="35" t="n"/>
+      <c r="R20" s="35" t="n"/>
+      <c r="S20" s="41" t="n"/>
+      <c r="T20" s="41" t="n"/>
+      <c r="U20" s="41" t="n"/>
+      <c r="V20" s="35" t="n"/>
       <c r="W20" s="38" t="n"/>
       <c r="X20" s="38" t="n"/>
       <c r="Y20" s="39" t="n"/>
@@ -2658,93 +1997,27 @@
       <c r="A21" s="59" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="56" t="inlineStr">
-        <is>
-          <t>FILA_11</t>
-        </is>
-      </c>
-      <c r="C21" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D21" s="35" t="inlineStr">
-        <is>
-          <t>9 9. Otra</t>
-        </is>
-      </c>
-      <c r="E21" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F21" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G21" s="35" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H21" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I21" s="35" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="J21" s="42" t="n">
-        <v>1384715</v>
-      </c>
-      <c r="K21" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L21" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Activos Monetarios</t>
-        </is>
-      </c>
-      <c r="M21" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N21" s="37" t="n">
-        <v>44462</v>
-      </c>
-      <c r="O21" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P21" s="37" t="n">
-        <v>46568</v>
-      </c>
-      <c r="Q21" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="43" t="n">
-        <v>10899</v>
-      </c>
-      <c r="T21" s="43" t="n">
-        <v>47450</v>
-      </c>
-      <c r="U21" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2023: 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente; 5. En cuanto a la columna 8, Otra= equipamento</t>
-        </is>
-      </c>
+      <c r="B21" s="56" t="n"/>
+      <c r="C21" s="35" t="n"/>
+      <c r="D21" s="35" t="n"/>
+      <c r="E21" s="35" t="n"/>
+      <c r="F21" s="35" t="n"/>
+      <c r="G21" s="35" t="n"/>
+      <c r="H21" s="35" t="n"/>
+      <c r="I21" s="35" t="n"/>
+      <c r="J21" s="42" t="n"/>
+      <c r="K21" s="35" t="n"/>
+      <c r="L21" s="35" t="n"/>
+      <c r="M21" s="35" t="n"/>
+      <c r="N21" s="37" t="n"/>
+      <c r="O21" s="35" t="n"/>
+      <c r="P21" s="37" t="n"/>
+      <c r="Q21" s="35" t="n"/>
+      <c r="R21" s="35" t="n"/>
+      <c r="S21" s="43" t="n"/>
+      <c r="T21" s="43" t="n"/>
+      <c r="U21" s="35" t="n"/>
+      <c r="V21" s="35" t="n"/>
       <c r="W21" s="38" t="n"/>
       <c r="X21" s="38" t="n"/>
       <c r="Y21" s="39" t="n"/>
@@ -2766,93 +2039,27 @@
       <c r="A22" s="59" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="56" t="inlineStr">
-        <is>
-          <t>FILA_12</t>
-        </is>
-      </c>
-      <c r="C22" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D22" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Vivienda</t>
-        </is>
-      </c>
-      <c r="E22" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F22" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G22" s="35" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H22" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I22" s="35" t="n">
-        <v>11553000000</v>
-      </c>
-      <c r="J22" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L22" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Activos Monetarios</t>
-        </is>
-      </c>
-      <c r="M22" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N22" s="37" t="n">
-        <v>43501</v>
-      </c>
-      <c r="O22" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P22" s="37" t="n">
-        <v>44377</v>
-      </c>
-      <c r="Q22" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2022. 4. En cuanto a la columna 76  se reporta la totalidad de gastos y costos del mes correspondiente.</t>
-        </is>
-      </c>
+      <c r="B22" s="56" t="n"/>
+      <c r="C22" s="35" t="n"/>
+      <c r="D22" s="35" t="n"/>
+      <c r="E22" s="35" t="n"/>
+      <c r="F22" s="35" t="n"/>
+      <c r="G22" s="35" t="n"/>
+      <c r="H22" s="35" t="n"/>
+      <c r="I22" s="35" t="n"/>
+      <c r="J22" s="36" t="n"/>
+      <c r="K22" s="35" t="n"/>
+      <c r="L22" s="35" t="n"/>
+      <c r="M22" s="35" t="n"/>
+      <c r="N22" s="37" t="n"/>
+      <c r="O22" s="35" t="n"/>
+      <c r="P22" s="37" t="n"/>
+      <c r="Q22" s="35" t="n"/>
+      <c r="R22" s="36" t="n"/>
+      <c r="S22" s="35" t="n"/>
+      <c r="T22" s="35" t="n"/>
+      <c r="U22" s="35" t="n"/>
+      <c r="V22" s="35" t="n"/>
       <c r="W22" s="44" t="n"/>
       <c r="X22" s="44" t="n"/>
       <c r="Y22" s="44" t="n"/>
@@ -2874,93 +2081,27 @@
       <c r="A23" s="59" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="56" t="inlineStr">
-        <is>
-          <t>FILA_13</t>
-        </is>
-      </c>
-      <c r="C23" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D23" s="35" t="inlineStr">
-        <is>
-          <t>9 9. Otra</t>
-        </is>
-      </c>
-      <c r="E23" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F23" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G23" s="35" t="inlineStr">
-        <is>
-          <t>5 Alianza Fiduciaria S.A.</t>
-        </is>
-      </c>
-      <c r="H23" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I23" s="35" t="n">
-        <v>9536602378</v>
-      </c>
-      <c r="J23" s="36" t="n">
-        <v>11264217461</v>
-      </c>
-      <c r="K23" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L23" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Otros (Especificar en Observaciones)</t>
-        </is>
-      </c>
-      <c r="M23" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N23" s="37" t="n">
-        <v>42724</v>
-      </c>
-      <c r="O23" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P23" s="37" t="n">
-        <v>45657</v>
-      </c>
-      <c r="Q23" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" s="41" t="n">
-        <v>70846549</v>
-      </c>
-      <c r="T23" s="41" t="n">
-        <v>333349261</v>
-      </c>
-      <c r="U23" s="41" t="n">
-        <v>19124920</v>
-      </c>
-      <c r="V23" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2024: 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente; 5. En cuanto a la columna 8, Otra= equipamento; 6. En cuanto a la columna 40 Otro= Activo monetario+Bienes Inmuebles+Bienes en especie</t>
-        </is>
-      </c>
+      <c r="B23" s="56" t="n"/>
+      <c r="C23" s="35" t="n"/>
+      <c r="D23" s="35" t="n"/>
+      <c r="E23" s="35" t="n"/>
+      <c r="F23" s="35" t="n"/>
+      <c r="G23" s="35" t="n"/>
+      <c r="H23" s="35" t="n"/>
+      <c r="I23" s="35" t="n"/>
+      <c r="J23" s="36" t="n"/>
+      <c r="K23" s="35" t="n"/>
+      <c r="L23" s="35" t="n"/>
+      <c r="M23" s="35" t="n"/>
+      <c r="N23" s="37" t="n"/>
+      <c r="O23" s="35" t="n"/>
+      <c r="P23" s="37" t="n"/>
+      <c r="Q23" s="35" t="n"/>
+      <c r="R23" s="35" t="n"/>
+      <c r="S23" s="41" t="n"/>
+      <c r="T23" s="41" t="n"/>
+      <c r="U23" s="41" t="n"/>
+      <c r="V23" s="35" t="n"/>
       <c r="W23" s="44" t="n"/>
       <c r="X23" s="44" t="n"/>
       <c r="Y23" s="44" t="n"/>
@@ -2982,93 +2123,27 @@
       <c r="A24" s="59" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="56" t="inlineStr">
-        <is>
-          <t>FILA_14</t>
-        </is>
-      </c>
-      <c r="C24" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D24" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Vivienda</t>
-        </is>
-      </c>
-      <c r="E24" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F24" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G24" s="35" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H24" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I24" s="35" t="n">
-        <v>2500000000</v>
-      </c>
-      <c r="J24" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L24" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Bienes Inmuebles</t>
-        </is>
-      </c>
-      <c r="M24" s="35" t="inlineStr">
-        <is>
-          <t>9 9. Otro (Especificar en Observaciones)</t>
-        </is>
-      </c>
-      <c r="N24" s="37" t="n">
-        <v>41851</v>
-      </c>
-      <c r="O24" s="35" t="inlineStr">
-        <is>
-          <t>7 7. Liquidación</t>
-        </is>
-      </c>
-      <c r="P24" s="37" t="n">
-        <v>46568</v>
-      </c>
-      <c r="Q24" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="35" t="n">
-        <v>135542</v>
-      </c>
-      <c r="U24" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2022. 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente. 5. En cuanto a la columna 44 Otro= Fideicomiso activo sin movimiento de pago.</t>
-        </is>
-      </c>
+      <c r="B24" s="56" t="n"/>
+      <c r="C24" s="35" t="n"/>
+      <c r="D24" s="35" t="n"/>
+      <c r="E24" s="35" t="n"/>
+      <c r="F24" s="35" t="n"/>
+      <c r="G24" s="35" t="n"/>
+      <c r="H24" s="35" t="n"/>
+      <c r="I24" s="35" t="n"/>
+      <c r="J24" s="36" t="n"/>
+      <c r="K24" s="35" t="n"/>
+      <c r="L24" s="35" t="n"/>
+      <c r="M24" s="35" t="n"/>
+      <c r="N24" s="37" t="n"/>
+      <c r="O24" s="35" t="n"/>
+      <c r="P24" s="37" t="n"/>
+      <c r="Q24" s="35" t="n"/>
+      <c r="R24" s="36" t="n"/>
+      <c r="S24" s="35" t="n"/>
+      <c r="T24" s="35" t="n"/>
+      <c r="U24" s="35" t="n"/>
+      <c r="V24" s="35" t="n"/>
       <c r="W24" s="44" t="n"/>
       <c r="X24" s="44" t="n"/>
       <c r="Y24" s="44" t="n"/>
@@ -3090,93 +2165,27 @@
       <c r="A25" s="59" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="56" t="inlineStr">
-        <is>
-          <t>FILA_15</t>
-        </is>
-      </c>
-      <c r="C25" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D25" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Vivienda</t>
-        </is>
-      </c>
-      <c r="E25" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F25" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G25" s="35" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H25" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I25" s="35" t="n">
-        <v>1007140000</v>
-      </c>
-      <c r="J25" s="36" t="n">
-        <v>2899111074</v>
-      </c>
-      <c r="K25" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L25" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Bienes Inmuebles</t>
-        </is>
-      </c>
-      <c r="M25" s="35" t="inlineStr">
-        <is>
-          <t>9 9. Otro (Especificar en Observaciones)</t>
-        </is>
-      </c>
-      <c r="N25" s="37" t="n">
-        <v>41547</v>
-      </c>
-      <c r="O25" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P25" s="37" t="n">
-        <v>46568</v>
-      </c>
-      <c r="Q25" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" s="35" t="n">
-        <v>4603255</v>
-      </c>
-      <c r="U25" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2024. 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente. 5. En cuanto a la columna 44 Otro= Fideicomiso activo sin movimiento de pago.</t>
-        </is>
-      </c>
+      <c r="B25" s="56" t="n"/>
+      <c r="C25" s="35" t="n"/>
+      <c r="D25" s="35" t="n"/>
+      <c r="E25" s="35" t="n"/>
+      <c r="F25" s="35" t="n"/>
+      <c r="G25" s="35" t="n"/>
+      <c r="H25" s="35" t="n"/>
+      <c r="I25" s="35" t="n"/>
+      <c r="J25" s="36" t="n"/>
+      <c r="K25" s="35" t="n"/>
+      <c r="L25" s="35" t="n"/>
+      <c r="M25" s="35" t="n"/>
+      <c r="N25" s="37" t="n"/>
+      <c r="O25" s="35" t="n"/>
+      <c r="P25" s="37" t="n"/>
+      <c r="Q25" s="35" t="n"/>
+      <c r="R25" s="36" t="n"/>
+      <c r="S25" s="35" t="n"/>
+      <c r="T25" s="35" t="n"/>
+      <c r="U25" s="35" t="n"/>
+      <c r="V25" s="35" t="n"/>
       <c r="W25" s="44" t="n"/>
       <c r="X25" s="44" t="n"/>
       <c r="Y25" s="44" t="n"/>
@@ -3198,93 +2207,27 @@
       <c r="A26" s="59" t="n">
         <v>16</v>
       </c>
-      <c r="B26" s="56" t="inlineStr">
-        <is>
-          <t>FILA_16</t>
-        </is>
-      </c>
-      <c r="C26" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D26" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Vivienda</t>
-        </is>
-      </c>
-      <c r="E26" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F26" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G26" s="35" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H26" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I26" s="35" t="n">
-        <v>1275351082</v>
-      </c>
-      <c r="J26" s="35" t="n">
-        <v>530908395</v>
-      </c>
-      <c r="K26" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L26" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Bienes Inmuebles</t>
-        </is>
-      </c>
-      <c r="M26" s="35" t="inlineStr">
-        <is>
-          <t>3.3. Mensual</t>
-        </is>
-      </c>
-      <c r="N26" s="37" t="n">
-        <v>41425</v>
-      </c>
-      <c r="O26" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Sustracción</t>
-        </is>
-      </c>
-      <c r="P26" s="37" t="n">
-        <v>46568</v>
-      </c>
-      <c r="Q26" s="35" t="n">
-        <v>-97835624</v>
-      </c>
-      <c r="R26" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" s="35" t="n">
-        <v>463898</v>
-      </c>
-      <c r="T26" s="35" t="n">
-        <v>2445968</v>
-      </c>
-      <c r="U26" s="35" t="n">
-        <v>393010</v>
-      </c>
-      <c r="V26" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2024. 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente. 5. En cuanto a la columna 44 Otro= Fideicomiso activo sin movimiento de pago.</t>
-        </is>
-      </c>
+      <c r="B26" s="56" t="n"/>
+      <c r="C26" s="35" t="n"/>
+      <c r="D26" s="35" t="n"/>
+      <c r="E26" s="35" t="n"/>
+      <c r="F26" s="35" t="n"/>
+      <c r="G26" s="35" t="n"/>
+      <c r="H26" s="35" t="n"/>
+      <c r="I26" s="35" t="n"/>
+      <c r="J26" s="35" t="n"/>
+      <c r="K26" s="35" t="n"/>
+      <c r="L26" s="35" t="n"/>
+      <c r="M26" s="35" t="n"/>
+      <c r="N26" s="37" t="n"/>
+      <c r="O26" s="35" t="n"/>
+      <c r="P26" s="37" t="n"/>
+      <c r="Q26" s="35" t="n"/>
+      <c r="R26" s="36" t="n"/>
+      <c r="S26" s="35" t="n"/>
+      <c r="T26" s="35" t="n"/>
+      <c r="U26" s="35" t="n"/>
+      <c r="V26" s="35" t="n"/>
       <c r="W26" s="45" t="n"/>
       <c r="X26" s="46" t="n"/>
       <c r="Y26" s="46" t="n"/>
@@ -3306,93 +2249,27 @@
       <c r="A27" s="59" t="n">
         <v>17</v>
       </c>
-      <c r="B27" s="56" t="inlineStr">
-        <is>
-          <t>FILA_17</t>
-        </is>
-      </c>
-      <c r="C27" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D27" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Vivienda</t>
-        </is>
-      </c>
-      <c r="E27" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F27" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G27" s="35" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H27" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I27" s="35" t="n">
-        <v>1677303019</v>
-      </c>
-      <c r="J27" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L27" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Bienes Inmuebles</t>
-        </is>
-      </c>
-      <c r="M27" s="35" t="inlineStr">
-        <is>
-          <t>9 9. Otro (Especificar en Observaciones)</t>
-        </is>
-      </c>
-      <c r="N27" s="37" t="n">
-        <v>42185</v>
-      </c>
-      <c r="O27" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P27" s="37" t="n">
-        <v>46568</v>
-      </c>
-      <c r="Q27" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2024. 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente.</t>
-        </is>
-      </c>
+      <c r="B27" s="56" t="n"/>
+      <c r="C27" s="35" t="n"/>
+      <c r="D27" s="35" t="n"/>
+      <c r="E27" s="35" t="n"/>
+      <c r="F27" s="35" t="n"/>
+      <c r="G27" s="35" t="n"/>
+      <c r="H27" s="35" t="n"/>
+      <c r="I27" s="35" t="n"/>
+      <c r="J27" s="36" t="n"/>
+      <c r="K27" s="35" t="n"/>
+      <c r="L27" s="35" t="n"/>
+      <c r="M27" s="35" t="n"/>
+      <c r="N27" s="37" t="n"/>
+      <c r="O27" s="35" t="n"/>
+      <c r="P27" s="37" t="n"/>
+      <c r="Q27" s="35" t="n"/>
+      <c r="R27" s="36" t="n"/>
+      <c r="S27" s="35" t="n"/>
+      <c r="T27" s="35" t="n"/>
+      <c r="U27" s="35" t="n"/>
+      <c r="V27" s="35" t="n"/>
       <c r="W27" s="44" t="n"/>
       <c r="X27" s="44" t="n"/>
       <c r="Y27" s="44" t="n"/>
@@ -3414,93 +2291,27 @@
       <c r="A28" s="59" t="n">
         <v>18</v>
       </c>
-      <c r="B28" s="56" t="inlineStr">
-        <is>
-          <t>FILA_18</t>
-        </is>
-      </c>
-      <c r="C28" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D28" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Vivienda</t>
-        </is>
-      </c>
-      <c r="E28" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F28" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G28" s="35" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H28" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I28" s="35" t="n">
-        <v>2289157123</v>
-      </c>
-      <c r="J28" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L28" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Bienes Inmuebles</t>
-        </is>
-      </c>
-      <c r="M28" s="35" t="inlineStr">
-        <is>
-          <t>9 9. Otro (Especificar en Observaciones)</t>
-        </is>
-      </c>
-      <c r="N28" s="37" t="n">
-        <v>42185</v>
-      </c>
-      <c r="O28" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P28" s="37" t="n">
-        <v>46568</v>
-      </c>
-      <c r="Q28" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2024. 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente.</t>
-        </is>
-      </c>
+      <c r="B28" s="56" t="n"/>
+      <c r="C28" s="35" t="n"/>
+      <c r="D28" s="35" t="n"/>
+      <c r="E28" s="35" t="n"/>
+      <c r="F28" s="35" t="n"/>
+      <c r="G28" s="35" t="n"/>
+      <c r="H28" s="35" t="n"/>
+      <c r="I28" s="35" t="n"/>
+      <c r="J28" s="36" t="n"/>
+      <c r="K28" s="35" t="n"/>
+      <c r="L28" s="35" t="n"/>
+      <c r="M28" s="35" t="n"/>
+      <c r="N28" s="37" t="n"/>
+      <c r="O28" s="35" t="n"/>
+      <c r="P28" s="37" t="n"/>
+      <c r="Q28" s="35" t="n"/>
+      <c r="R28" s="36" t="n"/>
+      <c r="S28" s="35" t="n"/>
+      <c r="T28" s="35" t="n"/>
+      <c r="U28" s="35" t="n"/>
+      <c r="V28" s="35" t="n"/>
       <c r="W28" s="44" t="n"/>
       <c r="X28" s="44" t="n"/>
       <c r="Y28" s="44" t="n"/>
@@ -3522,93 +2333,27 @@
       <c r="A29" s="59" t="n">
         <v>19</v>
       </c>
-      <c r="B29" s="56" t="inlineStr">
-        <is>
-          <t>FILA_19</t>
-        </is>
-      </c>
-      <c r="C29" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D29" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Vivienda</t>
-        </is>
-      </c>
-      <c r="E29" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F29" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G29" s="35" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H29" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I29" s="35" t="n">
-        <v>796275870</v>
-      </c>
-      <c r="J29" s="49" t="n">
-        <v>13966023011</v>
-      </c>
-      <c r="K29" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L29" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Bienes Inmuebles</t>
-        </is>
-      </c>
-      <c r="M29" s="35" t="inlineStr">
-        <is>
-          <t>3.3. Mensual</t>
-        </is>
-      </c>
-      <c r="N29" s="37" t="n">
-        <v>41517</v>
-      </c>
-      <c r="O29" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Sustracción</t>
-        </is>
-      </c>
-      <c r="P29" s="37" t="n">
-        <v>46568</v>
-      </c>
-      <c r="Q29" s="35" t="n">
-        <v>-2741872007</v>
-      </c>
-      <c r="R29" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" s="41" t="n">
-        <v>48395227</v>
-      </c>
-      <c r="T29" s="50" t="n">
-        <v>200222590</v>
-      </c>
-      <c r="U29" s="40" t="n">
-        <v>4269</v>
-      </c>
-      <c r="V29" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2024. 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente.</t>
-        </is>
-      </c>
+      <c r="B29" s="56" t="n"/>
+      <c r="C29" s="35" t="n"/>
+      <c r="D29" s="35" t="n"/>
+      <c r="E29" s="35" t="n"/>
+      <c r="F29" s="35" t="n"/>
+      <c r="G29" s="35" t="n"/>
+      <c r="H29" s="35" t="n"/>
+      <c r="I29" s="35" t="n"/>
+      <c r="J29" s="49" t="n"/>
+      <c r="K29" s="35" t="n"/>
+      <c r="L29" s="35" t="n"/>
+      <c r="M29" s="35" t="n"/>
+      <c r="N29" s="37" t="n"/>
+      <c r="O29" s="35" t="n"/>
+      <c r="P29" s="37" t="n"/>
+      <c r="Q29" s="35" t="n"/>
+      <c r="R29" s="36" t="n"/>
+      <c r="S29" s="41" t="n"/>
+      <c r="T29" s="50" t="n"/>
+      <c r="U29" s="40" t="n"/>
+      <c r="V29" s="35" t="n"/>
       <c r="W29" s="45" t="n"/>
       <c r="X29" s="46" t="n"/>
       <c r="Y29" s="46" t="n"/>
@@ -3630,93 +2375,27 @@
       <c r="A30" s="59" t="n">
         <v>20</v>
       </c>
-      <c r="B30" s="56" t="inlineStr">
-        <is>
-          <t>FILA_20</t>
-        </is>
-      </c>
-      <c r="C30" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D30" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Vivienda</t>
-        </is>
-      </c>
-      <c r="E30" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F30" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G30" s="35" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H30" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I30" s="35" t="n">
-        <v>99036000</v>
-      </c>
-      <c r="J30" s="36" t="n">
-        <v>7629760136</v>
-      </c>
-      <c r="K30" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L30" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Bienes Inmuebles</t>
-        </is>
-      </c>
-      <c r="M30" s="35" t="inlineStr">
-        <is>
-          <t>3.3. Mensual</t>
-        </is>
-      </c>
-      <c r="N30" s="37" t="n">
-        <v>41360</v>
-      </c>
-      <c r="O30" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Sustracción</t>
-        </is>
-      </c>
-      <c r="P30" s="37" t="n">
-        <v>46568</v>
-      </c>
-      <c r="Q30" s="35" t="n">
-        <v>-83434413</v>
-      </c>
-      <c r="R30" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" s="35" t="n">
-        <v>39397850</v>
-      </c>
-      <c r="T30" s="35" t="n">
-        <v>142627736</v>
-      </c>
-      <c r="U30" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2024. 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente.</t>
-        </is>
-      </c>
+      <c r="B30" s="56" t="n"/>
+      <c r="C30" s="35" t="n"/>
+      <c r="D30" s="35" t="n"/>
+      <c r="E30" s="35" t="n"/>
+      <c r="F30" s="35" t="n"/>
+      <c r="G30" s="35" t="n"/>
+      <c r="H30" s="35" t="n"/>
+      <c r="I30" s="35" t="n"/>
+      <c r="J30" s="36" t="n"/>
+      <c r="K30" s="35" t="n"/>
+      <c r="L30" s="35" t="n"/>
+      <c r="M30" s="35" t="n"/>
+      <c r="N30" s="37" t="n"/>
+      <c r="O30" s="35" t="n"/>
+      <c r="P30" s="37" t="n"/>
+      <c r="Q30" s="35" t="n"/>
+      <c r="R30" s="36" t="n"/>
+      <c r="S30" s="35" t="n"/>
+      <c r="T30" s="35" t="n"/>
+      <c r="U30" s="35" t="n"/>
+      <c r="V30" s="35" t="n"/>
       <c r="W30" s="45" t="n"/>
       <c r="X30" s="46" t="n"/>
       <c r="Y30" s="46" t="n"/>
@@ -3738,93 +2417,27 @@
       <c r="A31" s="59" t="n">
         <v>21</v>
       </c>
-      <c r="B31" s="56" t="inlineStr">
-        <is>
-          <t>FILA_21</t>
-        </is>
-      </c>
-      <c r="C31" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D31" s="35" t="inlineStr">
-        <is>
-          <t>9 9. Otra</t>
-        </is>
-      </c>
-      <c r="E31" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F31" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G31" s="35" t="inlineStr">
-        <is>
-          <t>5 Alianza Fiduciaria S.A.</t>
-        </is>
-      </c>
-      <c r="H31" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I31" s="35" t="n">
-        <v>6091279835</v>
-      </c>
-      <c r="J31" s="36" t="n">
-        <v>58072041855</v>
-      </c>
-      <c r="K31" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L31" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Otros (Especificar en Observaciones)</t>
-        </is>
-      </c>
-      <c r="M31" s="35" t="inlineStr">
-        <is>
-          <t>3.3. Mensual</t>
-        </is>
-      </c>
-      <c r="N31" s="37" t="n">
-        <v>43809</v>
-      </c>
-      <c r="O31" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P31" s="37" t="n">
-        <v>45636</v>
-      </c>
-      <c r="Q31" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2024. 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente.</t>
-        </is>
-      </c>
+      <c r="B31" s="56" t="n"/>
+      <c r="C31" s="35" t="n"/>
+      <c r="D31" s="35" t="n"/>
+      <c r="E31" s="35" t="n"/>
+      <c r="F31" s="35" t="n"/>
+      <c r="G31" s="35" t="n"/>
+      <c r="H31" s="35" t="n"/>
+      <c r="I31" s="35" t="n"/>
+      <c r="J31" s="36" t="n"/>
+      <c r="K31" s="35" t="n"/>
+      <c r="L31" s="35" t="n"/>
+      <c r="M31" s="35" t="n"/>
+      <c r="N31" s="37" t="n"/>
+      <c r="O31" s="35" t="n"/>
+      <c r="P31" s="37" t="n"/>
+      <c r="Q31" s="35" t="n"/>
+      <c r="R31" s="36" t="n"/>
+      <c r="S31" s="35" t="n"/>
+      <c r="T31" s="35" t="n"/>
+      <c r="U31" s="35" t="n"/>
+      <c r="V31" s="35" t="n"/>
       <c r="W31" s="44" t="n"/>
       <c r="X31" s="44" t="n"/>
       <c r="Y31" s="44" t="n"/>
@@ -3846,93 +2459,27 @@
       <c r="A32" s="59" t="n">
         <v>22</v>
       </c>
-      <c r="B32" s="56" t="inlineStr">
-        <is>
-          <t>FILA_22</t>
-        </is>
-      </c>
-      <c r="C32" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D32" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Vivienda</t>
-        </is>
-      </c>
-      <c r="E32" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F32" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G32" s="35" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H32" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I32" s="35" t="n">
-        <v>4311176</v>
-      </c>
-      <c r="J32" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L32" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Bienes Inmuebles</t>
-        </is>
-      </c>
-      <c r="M32" s="35" t="inlineStr">
-        <is>
-          <t>9 9. Otro (Especificar en Observaciones)</t>
-        </is>
-      </c>
-      <c r="N32" s="37" t="n">
-        <v>42200</v>
-      </c>
-      <c r="O32" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P32" s="37" t="n">
-        <v>46678</v>
-      </c>
-      <c r="Q32" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2024. 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente.</t>
-        </is>
-      </c>
+      <c r="B32" s="56" t="n"/>
+      <c r="C32" s="35" t="n"/>
+      <c r="D32" s="35" t="n"/>
+      <c r="E32" s="35" t="n"/>
+      <c r="F32" s="35" t="n"/>
+      <c r="G32" s="35" t="n"/>
+      <c r="H32" s="35" t="n"/>
+      <c r="I32" s="35" t="n"/>
+      <c r="J32" s="36" t="n"/>
+      <c r="K32" s="35" t="n"/>
+      <c r="L32" s="35" t="n"/>
+      <c r="M32" s="35" t="n"/>
+      <c r="N32" s="37" t="n"/>
+      <c r="O32" s="35" t="n"/>
+      <c r="P32" s="37" t="n"/>
+      <c r="Q32" s="35" t="n"/>
+      <c r="R32" s="36" t="n"/>
+      <c r="S32" s="35" t="n"/>
+      <c r="T32" s="35" t="n"/>
+      <c r="U32" s="35" t="n"/>
+      <c r="V32" s="35" t="n"/>
       <c r="W32" s="44" t="n"/>
       <c r="X32" s="44" t="n"/>
       <c r="Y32" s="44" t="n"/>
@@ -3954,93 +2501,27 @@
       <c r="A33" s="59" t="n">
         <v>23</v>
       </c>
-      <c r="B33" s="56" t="inlineStr">
-        <is>
-          <t>FILA_23</t>
-        </is>
-      </c>
-      <c r="C33" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D33" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Vivienda</t>
-        </is>
-      </c>
-      <c r="E33" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F33" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G33" s="35" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H33" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I33" s="35" t="n">
-        <v>1511336796</v>
-      </c>
-      <c r="J33" s="35" t="n">
-        <v>6682367039</v>
-      </c>
-      <c r="K33" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L33" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Bienes Inmuebles</t>
-        </is>
-      </c>
-      <c r="M33" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N33" s="37" t="n">
-        <v>41411</v>
-      </c>
-      <c r="O33" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P33" s="37" t="n">
-        <v>46568</v>
-      </c>
-      <c r="Q33" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" s="43" t="n">
-        <v>100748820</v>
-      </c>
-      <c r="T33" s="43" t="n">
-        <v>427866054</v>
-      </c>
-      <c r="U33" s="35" t="n">
-        <v>5981662</v>
-      </c>
-      <c r="V33" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2024. 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente.</t>
-        </is>
-      </c>
+      <c r="B33" s="56" t="n"/>
+      <c r="C33" s="35" t="n"/>
+      <c r="D33" s="35" t="n"/>
+      <c r="E33" s="35" t="n"/>
+      <c r="F33" s="35" t="n"/>
+      <c r="G33" s="35" t="n"/>
+      <c r="H33" s="35" t="n"/>
+      <c r="I33" s="35" t="n"/>
+      <c r="J33" s="35" t="n"/>
+      <c r="K33" s="35" t="n"/>
+      <c r="L33" s="35" t="n"/>
+      <c r="M33" s="35" t="n"/>
+      <c r="N33" s="37" t="n"/>
+      <c r="O33" s="35" t="n"/>
+      <c r="P33" s="37" t="n"/>
+      <c r="Q33" s="35" t="n"/>
+      <c r="R33" s="36" t="n"/>
+      <c r="S33" s="43" t="n"/>
+      <c r="T33" s="43" t="n"/>
+      <c r="U33" s="35" t="n"/>
+      <c r="V33" s="35" t="n"/>
       <c r="W33" s="44" t="n"/>
       <c r="X33" s="44" t="n"/>
       <c r="Y33" s="44" t="n"/>
@@ -4062,93 +2543,27 @@
       <c r="A34" s="59" t="n">
         <v>24</v>
       </c>
-      <c r="B34" s="56" t="inlineStr">
-        <is>
-          <t>FILA_24</t>
-        </is>
-      </c>
-      <c r="C34" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D34" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Vivienda</t>
-        </is>
-      </c>
-      <c r="E34" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F34" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G34" s="35" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H34" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I34" s="35" t="n">
-        <v>1498000000</v>
-      </c>
-      <c r="J34" s="36" t="n">
-        <v>19730280</v>
-      </c>
-      <c r="K34" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L34" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Bienes Inmuebles</t>
-        </is>
-      </c>
-      <c r="M34" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N34" s="37" t="n">
-        <v>41891</v>
-      </c>
-      <c r="O34" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P34" s="37" t="n">
-        <v>46568</v>
-      </c>
-      <c r="Q34" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" s="40" t="n">
-        <v>1523090</v>
-      </c>
-      <c r="T34" s="40" t="n">
-        <v>21103387</v>
-      </c>
-      <c r="U34" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2024. 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente.</t>
-        </is>
-      </c>
+      <c r="B34" s="56" t="n"/>
+      <c r="C34" s="35" t="n"/>
+      <c r="D34" s="35" t="n"/>
+      <c r="E34" s="35" t="n"/>
+      <c r="F34" s="35" t="n"/>
+      <c r="G34" s="35" t="n"/>
+      <c r="H34" s="35" t="n"/>
+      <c r="I34" s="35" t="n"/>
+      <c r="J34" s="36" t="n"/>
+      <c r="K34" s="35" t="n"/>
+      <c r="L34" s="35" t="n"/>
+      <c r="M34" s="35" t="n"/>
+      <c r="N34" s="37" t="n"/>
+      <c r="O34" s="35" t="n"/>
+      <c r="P34" s="37" t="n"/>
+      <c r="Q34" s="35" t="n"/>
+      <c r="R34" s="36" t="n"/>
+      <c r="S34" s="40" t="n"/>
+      <c r="T34" s="40" t="n"/>
+      <c r="U34" s="35" t="n"/>
+      <c r="V34" s="35" t="n"/>
       <c r="W34" s="44" t="n"/>
       <c r="X34" s="44" t="n"/>
       <c r="Y34" s="44" t="n"/>
@@ -4170,93 +2585,27 @@
       <c r="A35" s="59" t="n">
         <v>25</v>
       </c>
-      <c r="B35" s="56" t="inlineStr">
-        <is>
-          <t>FILA_25</t>
-        </is>
-      </c>
-      <c r="C35" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D35" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Vivienda</t>
-        </is>
-      </c>
-      <c r="E35" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F35" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G35" s="35" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H35" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I35" s="35" t="n">
-        <v>1426300000</v>
-      </c>
-      <c r="J35" s="36" t="n">
-        <v>1426300000</v>
-      </c>
-      <c r="K35" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L35" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Bienes Inmuebles</t>
-        </is>
-      </c>
-      <c r="M35" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N35" s="37" t="n">
-        <v>45321</v>
-      </c>
-      <c r="O35" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P35" s="37" t="n">
-        <v>46568</v>
-      </c>
-      <c r="Q35" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2024. 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente.</t>
-        </is>
-      </c>
+      <c r="B35" s="56" t="n"/>
+      <c r="C35" s="35" t="n"/>
+      <c r="D35" s="35" t="n"/>
+      <c r="E35" s="35" t="n"/>
+      <c r="F35" s="35" t="n"/>
+      <c r="G35" s="35" t="n"/>
+      <c r="H35" s="35" t="n"/>
+      <c r="I35" s="35" t="n"/>
+      <c r="J35" s="36" t="n"/>
+      <c r="K35" s="35" t="n"/>
+      <c r="L35" s="35" t="n"/>
+      <c r="M35" s="35" t="n"/>
+      <c r="N35" s="37" t="n"/>
+      <c r="O35" s="35" t="n"/>
+      <c r="P35" s="37" t="n"/>
+      <c r="Q35" s="36" t="n"/>
+      <c r="R35" s="36" t="n"/>
+      <c r="S35" s="35" t="n"/>
+      <c r="T35" s="35" t="n"/>
+      <c r="U35" s="35" t="n"/>
+      <c r="V35" s="35" t="n"/>
       <c r="W35" s="44" t="n"/>
       <c r="X35" s="44" t="n"/>
       <c r="Y35" s="44" t="n"/>
@@ -4278,93 +2627,27 @@
       <c r="A36" s="59" t="n">
         <v>26</v>
       </c>
-      <c r="B36" s="56" t="inlineStr">
-        <is>
-          <t>FILA_26</t>
-        </is>
-      </c>
-      <c r="C36" s="35" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D36" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Vivienda</t>
-        </is>
-      </c>
-      <c r="E36" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F36" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Fiducia de administración - Administración y pagos</t>
-        </is>
-      </c>
-      <c r="G36" s="35" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H36" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I36" s="35" t="n">
-        <v>820200000</v>
-      </c>
-      <c r="J36" s="36" t="n">
-        <v>5934989</v>
-      </c>
-      <c r="K36" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L36" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Bienes Inmuebles</t>
-        </is>
-      </c>
-      <c r="M36" s="35" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N36" s="37" t="n">
-        <v>45321</v>
-      </c>
-      <c r="O36" s="35" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P36" s="37" t="n">
-        <v>46568</v>
-      </c>
-      <c r="Q36" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" s="35" t="n">
-        <v>47648</v>
-      </c>
-      <c r="T36" s="35" t="n">
-        <v>5937561</v>
-      </c>
-      <c r="U36" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2024. 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente.</t>
-        </is>
-      </c>
+      <c r="B36" s="56" t="n"/>
+      <c r="C36" s="35" t="n"/>
+      <c r="D36" s="35" t="n"/>
+      <c r="E36" s="35" t="n"/>
+      <c r="F36" s="35" t="n"/>
+      <c r="G36" s="35" t="n"/>
+      <c r="H36" s="35" t="n"/>
+      <c r="I36" s="35" t="n"/>
+      <c r="J36" s="36" t="n"/>
+      <c r="K36" s="35" t="n"/>
+      <c r="L36" s="35" t="n"/>
+      <c r="M36" s="35" t="n"/>
+      <c r="N36" s="37" t="n"/>
+      <c r="O36" s="35" t="n"/>
+      <c r="P36" s="37" t="n"/>
+      <c r="Q36" s="36" t="n"/>
+      <c r="R36" s="36" t="n"/>
+      <c r="S36" s="35" t="n"/>
+      <c r="T36" s="35" t="n"/>
+      <c r="U36" s="35" t="n"/>
+      <c r="V36" s="35" t="n"/>
       <c r="W36" s="44" t="n"/>
       <c r="X36" s="44" t="n"/>
       <c r="Y36" s="44" t="n"/>
@@ -4386,93 +2669,27 @@
       <c r="A37" s="59" t="n">
         <v>27</v>
       </c>
-      <c r="B37" s="57" t="inlineStr">
-        <is>
-          <t>FILA_27</t>
-        </is>
-      </c>
-      <c r="C37" s="41" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D37" s="41" t="inlineStr">
-        <is>
-          <t>9 9. Otra</t>
-        </is>
-      </c>
-      <c r="E37" s="41" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F37" s="41" t="inlineStr">
-        <is>
-          <t>3 3. Fiducia Inmobiliaria- De administración y pagos</t>
-        </is>
-      </c>
-      <c r="G37" s="41" t="inlineStr">
-        <is>
-          <t>25 Fiduagraria S.A.</t>
-        </is>
-      </c>
-      <c r="H37" s="41" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I37" s="51" t="n">
-        <v>200000000</v>
-      </c>
-      <c r="J37" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="41" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L37" s="41" t="inlineStr">
-        <is>
-          <t>3 3. Activos Monetarios</t>
-        </is>
-      </c>
-      <c r="M37" s="41" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N37" s="53" t="n">
-        <v>45516</v>
-      </c>
-      <c r="O37" s="41" t="inlineStr">
-        <is>
-          <t>1 1. Sin novedad</t>
-        </is>
-      </c>
-      <c r="P37" s="53" t="n">
-        <v>45972</v>
-      </c>
-      <c r="Q37" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" s="41" t="inlineStr">
-        <is>
-          <t>No se presenta saldo del Derecho Fiduciarrio dado que los recursos corresponde a un convenio</t>
-        </is>
-      </c>
+      <c r="B37" s="57" t="n"/>
+      <c r="C37" s="41" t="n"/>
+      <c r="D37" s="41" t="n"/>
+      <c r="E37" s="41" t="n"/>
+      <c r="F37" s="41" t="n"/>
+      <c r="G37" s="41" t="n"/>
+      <c r="H37" s="41" t="n"/>
+      <c r="I37" s="51" t="n"/>
+      <c r="J37" s="52" t="n"/>
+      <c r="K37" s="41" t="n"/>
+      <c r="L37" s="41" t="n"/>
+      <c r="M37" s="41" t="n"/>
+      <c r="N37" s="53" t="n"/>
+      <c r="O37" s="41" t="n"/>
+      <c r="P37" s="53" t="n"/>
+      <c r="Q37" s="52" t="n"/>
+      <c r="R37" s="52" t="n"/>
+      <c r="S37" s="51" t="n"/>
+      <c r="T37" s="51" t="n"/>
+      <c r="U37" s="51" t="n"/>
+      <c r="V37" s="41" t="n"/>
       <c r="W37" s="44" t="n"/>
       <c r="X37" s="44" t="n"/>
       <c r="Y37" s="44" t="n"/>
@@ -4494,91 +2711,27 @@
       <c r="A38" s="59" t="n">
         <v>28</v>
       </c>
-      <c r="B38" s="57" t="inlineStr">
-        <is>
-          <t>FILA_28</t>
-        </is>
-      </c>
-      <c r="C38" s="41" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D38" s="41" t="inlineStr">
-        <is>
-          <t>9 9. Otra</t>
-        </is>
-      </c>
-      <c r="E38" s="41" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F38" s="41" t="inlineStr">
-        <is>
-          <t>3 3. Fiducia Inmobiliaria- De administración y pagos</t>
-        </is>
-      </c>
-      <c r="G38" s="41" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H38" s="41" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I38" s="51" t="n">
-        <v>20995736527</v>
-      </c>
-      <c r="J38" s="52" t="n">
-        <v>20982467133</v>
-      </c>
-      <c r="K38" s="41" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L38" s="41" t="inlineStr">
-        <is>
-          <t>3 3. Activos Monetarios</t>
-        </is>
-      </c>
-      <c r="M38" s="41" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N38" s="53" t="n">
-        <v>45708</v>
-      </c>
-      <c r="O38" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Sustracción</t>
-        </is>
-      </c>
-      <c r="P38" s="53" t="n">
-        <v>46568</v>
-      </c>
-      <c r="Q38" s="35" t="n">
-        <v>-13269394</v>
-      </c>
+      <c r="B38" s="57" t="n"/>
+      <c r="C38" s="41" t="n"/>
+      <c r="D38" s="41" t="n"/>
+      <c r="E38" s="41" t="n"/>
+      <c r="F38" s="41" t="n"/>
+      <c r="G38" s="41" t="n"/>
+      <c r="H38" s="41" t="n"/>
+      <c r="I38" s="51" t="n"/>
+      <c r="J38" s="52" t="n"/>
+      <c r="K38" s="41" t="n"/>
+      <c r="L38" s="41" t="n"/>
+      <c r="M38" s="41" t="n"/>
+      <c r="N38" s="53" t="n"/>
+      <c r="O38" s="35" t="n"/>
+      <c r="P38" s="53" t="n"/>
+      <c r="Q38" s="35" t="n"/>
       <c r="R38" s="52" t="n"/>
-      <c r="S38" s="35" t="n">
-        <v>162014251</v>
-      </c>
-      <c r="T38" s="35" t="n">
-        <v>303161438</v>
-      </c>
-      <c r="U38" s="44" t="n">
-        <v>33373</v>
-      </c>
-      <c r="V38" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2024. 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente.</t>
-        </is>
-      </c>
+      <c r="S38" s="35" t="n"/>
+      <c r="T38" s="35" t="n"/>
+      <c r="U38" s="44" t="n"/>
+      <c r="V38" s="35" t="n"/>
       <c r="W38" s="44" t="n"/>
       <c r="X38" s="44" t="n"/>
       <c r="Y38" s="44" t="n"/>
@@ -4600,91 +2753,27 @@
       <c r="A39" s="59" t="n">
         <v>29</v>
       </c>
-      <c r="B39" s="57" t="inlineStr">
-        <is>
-          <t>FILA_29</t>
-        </is>
-      </c>
-      <c r="C39" s="41" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D39" s="41" t="inlineStr">
-        <is>
-          <t>9 9. Otra</t>
-        </is>
-      </c>
-      <c r="E39" s="41" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F39" s="41" t="inlineStr">
-        <is>
-          <t>3 3. Fiducia Inmobiliaria- De administración y pagos</t>
-        </is>
-      </c>
-      <c r="G39" s="41" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H39" s="41" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I39" s="51" t="n">
-        <v>5112864000</v>
-      </c>
-      <c r="J39" s="52" t="n">
-        <v>5099594606</v>
-      </c>
-      <c r="K39" s="41" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L39" s="41" t="inlineStr">
-        <is>
-          <t>3 3. Activos Monetarios</t>
-        </is>
-      </c>
-      <c r="M39" s="41" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N39" s="53" t="n">
-        <v>45708</v>
-      </c>
-      <c r="O39" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Sustracción</t>
-        </is>
-      </c>
-      <c r="P39" s="53" t="n">
-        <v>46568</v>
-      </c>
-      <c r="Q39" s="35" t="n">
-        <v>-13269394</v>
-      </c>
+      <c r="B39" s="57" t="n"/>
+      <c r="C39" s="41" t="n"/>
+      <c r="D39" s="41" t="n"/>
+      <c r="E39" s="41" t="n"/>
+      <c r="F39" s="41" t="n"/>
+      <c r="G39" s="41" t="n"/>
+      <c r="H39" s="41" t="n"/>
+      <c r="I39" s="51" t="n"/>
+      <c r="J39" s="52" t="n"/>
+      <c r="K39" s="41" t="n"/>
+      <c r="L39" s="41" t="n"/>
+      <c r="M39" s="41" t="n"/>
+      <c r="N39" s="53" t="n"/>
+      <c r="O39" s="35" t="n"/>
+      <c r="P39" s="53" t="n"/>
+      <c r="Q39" s="35" t="n"/>
       <c r="R39" s="52" t="n"/>
-      <c r="S39" s="35" t="n">
-        <v>39426862</v>
-      </c>
-      <c r="T39" s="35" t="n">
-        <v>72985754</v>
-      </c>
-      <c r="U39" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2024. 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente.</t>
-        </is>
-      </c>
+      <c r="S39" s="35" t="n"/>
+      <c r="T39" s="35" t="n"/>
+      <c r="U39" s="51" t="n"/>
+      <c r="V39" s="35" t="n"/>
       <c r="W39" s="44" t="n"/>
       <c r="X39" s="44" t="n"/>
       <c r="Y39" s="44" t="n"/>
@@ -4706,91 +2795,27 @@
       <c r="A40" s="59" t="n">
         <v>30</v>
       </c>
-      <c r="B40" s="57" t="inlineStr">
-        <is>
-          <t>FILA_30</t>
-        </is>
-      </c>
-      <c r="C40" s="41" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D40" s="41" t="inlineStr">
-        <is>
-          <t>9 9. Otra</t>
-        </is>
-      </c>
-      <c r="E40" s="41" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F40" s="41" t="inlineStr">
-        <is>
-          <t>3 3. Fiducia Inmobiliaria- De administración y pagos</t>
-        </is>
-      </c>
-      <c r="G40" s="41" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H40" s="41" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I40" s="51" t="n">
-        <v>4000000000</v>
-      </c>
-      <c r="J40" s="51" t="n">
-        <v>3986730606</v>
-      </c>
-      <c r="K40" s="41" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L40" s="41" t="inlineStr">
-        <is>
-          <t>3 3. Activos Monetarios</t>
-        </is>
-      </c>
-      <c r="M40" s="41" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N40" s="53" t="n">
-        <v>45708</v>
-      </c>
-      <c r="O40" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Sustracción</t>
-        </is>
-      </c>
-      <c r="P40" s="53" t="n">
-        <v>46568</v>
-      </c>
-      <c r="Q40" s="35" t="n">
-        <v>-13269394</v>
-      </c>
+      <c r="B40" s="57" t="n"/>
+      <c r="C40" s="41" t="n"/>
+      <c r="D40" s="41" t="n"/>
+      <c r="E40" s="41" t="n"/>
+      <c r="F40" s="41" t="n"/>
+      <c r="G40" s="41" t="n"/>
+      <c r="H40" s="41" t="n"/>
+      <c r="I40" s="51" t="n"/>
+      <c r="J40" s="51" t="n"/>
+      <c r="K40" s="41" t="n"/>
+      <c r="L40" s="41" t="n"/>
+      <c r="M40" s="41" t="n"/>
+      <c r="N40" s="53" t="n"/>
+      <c r="O40" s="35" t="n"/>
+      <c r="P40" s="53" t="n"/>
+      <c r="Q40" s="35" t="n"/>
       <c r="R40" s="52" t="n"/>
-      <c r="S40" s="35" t="n">
-        <v>30861019</v>
-      </c>
-      <c r="T40" s="35" t="n">
-        <v>62181331</v>
-      </c>
-      <c r="U40" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2024. 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente.</t>
-        </is>
-      </c>
+      <c r="S40" s="35" t="n"/>
+      <c r="T40" s="35" t="n"/>
+      <c r="U40" s="51" t="n"/>
+      <c r="V40" s="35" t="n"/>
       <c r="W40" s="44" t="n"/>
       <c r="X40" s="44" t="n"/>
       <c r="Y40" s="44" t="n"/>
@@ -4812,93 +2837,27 @@
       <c r="A41" s="59" t="n">
         <v>31</v>
       </c>
-      <c r="B41" s="57" t="inlineStr">
-        <is>
-          <t>FILA_31</t>
-        </is>
-      </c>
-      <c r="C41" s="41" t="inlineStr">
-        <is>
-          <t>4 4. Ditrital</t>
-        </is>
-      </c>
-      <c r="D41" s="41" t="inlineStr">
-        <is>
-          <t>9 9. Otra</t>
-        </is>
-      </c>
-      <c r="E41" s="41" t="inlineStr">
-        <is>
-          <t>1 1. Fiducia</t>
-        </is>
-      </c>
-      <c r="F41" s="41" t="inlineStr">
-        <is>
-          <t>3 3. Fiducia Inmobiliaria- De administración y pagos</t>
-        </is>
-      </c>
-      <c r="G41" s="41" t="inlineStr">
-        <is>
-          <t>31 Fiduciaria Colpatria S.A.</t>
-        </is>
-      </c>
-      <c r="H41" s="41" t="inlineStr">
-        <is>
-          <t>1 1. Peso colombiano</t>
-        </is>
-      </c>
-      <c r="I41" s="51" t="n">
-        <v>3059129694</v>
-      </c>
-      <c r="J41" s="51" t="n">
-        <v>3045860300</v>
-      </c>
-      <c r="K41" s="41" t="inlineStr">
-        <is>
-          <t>1 1. Inversión</t>
-        </is>
-      </c>
-      <c r="L41" s="41" t="inlineStr">
-        <is>
-          <t>3 3. Activos Monetarios</t>
-        </is>
-      </c>
-      <c r="M41" s="41" t="inlineStr">
-        <is>
-          <t>3 3. Mensual</t>
-        </is>
-      </c>
-      <c r="N41" s="53" t="n">
-        <v>45708</v>
-      </c>
-      <c r="O41" s="35" t="inlineStr">
-        <is>
-          <t>6 6. Sustracción</t>
-        </is>
-      </c>
-      <c r="P41" s="53" t="n">
-        <v>46568</v>
-      </c>
-      <c r="Q41" s="35" t="n">
-        <v>-13269394</v>
-      </c>
-      <c r="R41" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" s="49" t="n">
-        <v>23547434</v>
-      </c>
-      <c r="T41" s="54" t="n">
-        <v>37824186</v>
-      </c>
-      <c r="U41" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" s="35" t="inlineStr">
-        <is>
-          <t>1. La fuente de informacion corresponde al cierre financiero reportado por la fiduciaria ; 2.En cuanto a la columna 64 No se reporta tasa de rentabilidad, porque se manejan diferentes subcuentas y cuentas de ahorros con una rentabilidad diferente; 3. En la columna 72 los rendimientos acumulados corresponde a la vigencia 2024. 4. En cuanto a la columna 76 se reporta la totalidad de gastos y costos del mes correspondiente.</t>
-        </is>
-      </c>
+      <c r="B41" s="57" t="n"/>
+      <c r="C41" s="41" t="n"/>
+      <c r="D41" s="41" t="n"/>
+      <c r="E41" s="41" t="n"/>
+      <c r="F41" s="41" t="n"/>
+      <c r="G41" s="41" t="n"/>
+      <c r="H41" s="41" t="n"/>
+      <c r="I41" s="51" t="n"/>
+      <c r="J41" s="51" t="n"/>
+      <c r="K41" s="41" t="n"/>
+      <c r="L41" s="41" t="n"/>
+      <c r="M41" s="41" t="n"/>
+      <c r="N41" s="53" t="n"/>
+      <c r="O41" s="35" t="n"/>
+      <c r="P41" s="53" t="n"/>
+      <c r="Q41" s="35" t="n"/>
+      <c r="R41" s="52" t="n"/>
+      <c r="S41" s="49" t="n"/>
+      <c r="T41" s="54" t="n"/>
+      <c r="U41" s="51" t="n"/>
+      <c r="V41" s="35" t="n"/>
       <c r="W41" s="44" t="n"/>
       <c r="X41" s="44" t="n"/>
       <c r="Y41" s="44" t="n"/>
@@ -5976,9 +3935,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col width="9.109375" customWidth="1" min="1" max="1"/>
+    <col width="9.140625" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="23" customWidth="1" min="4" max="4"/>
@@ -7520,30 +5479,30 @@
   </sheetPr>
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col width="9.109375" customWidth="1" min="1" max="1"/>
+    <col width="9.140625" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="24" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
-    <col width="21.109375" customWidth="1" min="5" max="5"/>
-    <col width="20.6640625" customWidth="1" min="6" max="6"/>
+    <col width="21.140625" customWidth="1" min="5" max="5"/>
+    <col width="20.7109375" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="18.6640625" customWidth="1" min="8" max="8"/>
-    <col width="21.5546875" customWidth="1" min="9" max="9"/>
-    <col width="21.33203125" customWidth="1" min="10" max="10"/>
-    <col width="26.5546875" customWidth="1" min="11" max="11"/>
-    <col width="25.109375" customWidth="1" min="12" max="12"/>
-    <col width="17.6640625" customWidth="1" min="13" max="13"/>
+    <col width="18.7109375" customWidth="1" min="8" max="8"/>
+    <col width="21.5703125" customWidth="1" min="9" max="9"/>
+    <col width="21.28515625" customWidth="1" min="10" max="10"/>
+    <col width="26.5703125" customWidth="1" min="11" max="11"/>
+    <col width="25.140625" customWidth="1" min="12" max="12"/>
+    <col width="17.7109375" customWidth="1" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
-    <col width="29.33203125" customWidth="1" min="15" max="15"/>
-    <col width="19.44140625" customWidth="1" min="16" max="16"/>
-    <col width="16.6640625" customWidth="1" min="17" max="17"/>
-    <col width="15.88671875" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="29.28515625" customWidth="1" min="15" max="15"/>
+    <col width="19.42578125" customWidth="1" min="16" max="16"/>
+    <col width="16.7109375" customWidth="1" min="17" max="17"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="18" max="18"/>
     <col width="14" bestFit="1" customWidth="1" min="19" max="19"/>
     <col width="19" customWidth="1" min="20" max="20"/>
   </cols>
@@ -7711,27 +5670,27 @@
       <c r="H3" s="60" t="n"/>
       <c r="I3" s="85" t="inlineStr">
         <is>
-          <t>6,288,883,930.21</t>
+          <t>4,277,099,602.58</t>
         </is>
       </c>
       <c r="J3" s="85" t="inlineStr">
         <is>
-          <t>3,760,347,885.57</t>
+          <t>5,164,952,557.14</t>
         </is>
       </c>
       <c r="K3" s="86" t="inlineStr">
         <is>
-          <t>5,772,132,213.20</t>
+          <t>7,759,478,895.00</t>
         </is>
       </c>
       <c r="L3" s="85" t="inlineStr">
         <is>
-          <t>4,277,099,602.58</t>
+          <t>1,682,573,264.72</t>
         </is>
       </c>
       <c r="M3" s="87" t="inlineStr">
         <is>
-          <t>3,500,000,000.00</t>
+          <t>5,000,000,000.00</t>
         </is>
       </c>
       <c r="N3" s="64" t="n"/>
@@ -7755,27 +5714,27 @@
       <c r="H4" s="65" t="n"/>
       <c r="I4" s="88" t="inlineStr">
         <is>
-          <t>34,187,691,453.20</t>
+          <t>6,288,883,930.21</t>
         </is>
       </c>
       <c r="J4" s="88" t="inlineStr">
         <is>
-          <t>120,933,587.28</t>
+          <t>3,760,347,885.57</t>
         </is>
       </c>
       <c r="K4" s="88" t="inlineStr">
         <is>
-          <t>207,864,459.99</t>
+          <t>5,772,132,213.20</t>
         </is>
       </c>
       <c r="L4" s="88" t="inlineStr">
         <is>
-          <t>34,100,760,580.49</t>
+          <t>4,277,099,602.58</t>
         </is>
       </c>
       <c r="M4" s="66" t="inlineStr">
         <is>
-          <t>117,689,383.99</t>
+          <t>3,500,000,000.00</t>
         </is>
       </c>
       <c r="N4" s="67" t="n"/>
@@ -7799,27 +5758,27 @@
       <c r="H5" s="65" t="n"/>
       <c r="I5" s="88" t="inlineStr">
         <is>
-          <t>652,244,592.49</t>
+          <t>652,315,853.40</t>
         </is>
       </c>
       <c r="J5" s="88" t="inlineStr">
         <is>
-          <t>2,307,837.40</t>
+          <t>2,229,500.61</t>
         </is>
       </c>
       <c r="K5" s="88" t="inlineStr">
         <is>
-          <t>2,236,576.49</t>
+          <t>2,302,353.40</t>
         </is>
       </c>
       <c r="L5" s="88" t="inlineStr">
         <is>
-          <t>652,315,853.40</t>
+          <t>652,243,000.61</t>
         </is>
       </c>
       <c r="M5" s="66" t="inlineStr">
         <is>
-          <t>2,075,042.49</t>
+          <t>74,365.68</t>
         </is>
       </c>
       <c r="N5" s="67" t="n"/>
@@ -7843,27 +5802,27 @@
       <c r="H6" s="65" t="n"/>
       <c r="I6" s="88" t="inlineStr">
         <is>
-          <t>53,919,558,770.43</t>
+          <t>34,187,691,453.20</t>
         </is>
       </c>
       <c r="J6" s="88" t="inlineStr">
         <is>
-          <t>190,705,766.27</t>
+          <t>120,933,587.28</t>
         </is>
       </c>
       <c r="K6" s="88" t="inlineStr">
         <is>
-          <t>79,391,537.06</t>
+          <t>207,864,459.99</t>
         </is>
       </c>
       <c r="L6" s="88" t="inlineStr">
         <is>
-          <t>54,030,872,999.64</t>
+          <t>34,100,760,580.49</t>
         </is>
       </c>
       <c r="M6" s="89" t="inlineStr">
         <is>
-          <t>116,934,952.79</t>
+          <t>117,689,383.99</t>
         </is>
       </c>
       <c r="N6" s="67" t="n"/>
@@ -7887,27 +5846,27 @@
       <c r="H7" s="65" t="n"/>
       <c r="I7" s="88" t="inlineStr">
         <is>
-          <t>.00</t>
+          <t>652,244,592.49</t>
         </is>
       </c>
       <c r="J7" s="88" t="inlineStr">
         <is>
-          <t>545,474,228.14</t>
+          <t>2,307,837.40</t>
         </is>
       </c>
       <c r="K7" s="88" t="inlineStr">
         <is>
-          <t>1,570.00</t>
+          <t>2,236,576.49</t>
         </is>
       </c>
       <c r="L7" s="88" t="inlineStr">
         <is>
-          <t>545,472,658.14</t>
+          <t>652,315,853.40</t>
         </is>
       </c>
       <c r="M7" s="89" t="inlineStr">
         <is>
-          <t>22,416.14</t>
+          <t>2,075,042.49</t>
         </is>
       </c>
       <c r="N7" s="67" t="n"/>
@@ -7929,11 +5888,31 @@
       <c r="F8" s="65" t="n"/>
       <c r="G8" s="65" t="n"/>
       <c r="H8" s="65" t="n"/>
-      <c r="I8" s="88" t="n"/>
-      <c r="J8" s="88" t="n"/>
-      <c r="K8" s="88" t="n"/>
-      <c r="L8" s="88" t="n"/>
-      <c r="M8" s="89" t="n"/>
+      <c r="I8" s="88" t="inlineStr">
+        <is>
+          <t>54,030,872,999.64</t>
+        </is>
+      </c>
+      <c r="J8" s="88" t="inlineStr">
+        <is>
+          <t>182,106,628.09</t>
+        </is>
+      </c>
+      <c r="K8" s="88" t="inlineStr">
+        <is>
+          <t>1,468,841,361.74</t>
+        </is>
+      </c>
+      <c r="L8" s="88" t="inlineStr">
+        <is>
+          <t>52,744,138,265.99</t>
+        </is>
+      </c>
+      <c r="M8" s="89" t="inlineStr">
+        <is>
+          <t>569,495,550.00</t>
+        </is>
+      </c>
       <c r="N8" s="67" t="n"/>
       <c r="O8" s="8" t="n"/>
       <c r="P8" s="8" t="n"/>
@@ -7953,11 +5932,31 @@
       <c r="F9" s="65" t="n"/>
       <c r="G9" s="65" t="n"/>
       <c r="H9" s="65" t="n"/>
-      <c r="I9" s="88" t="n"/>
-      <c r="J9" s="88" t="n"/>
-      <c r="K9" s="88" t="n"/>
-      <c r="L9" s="88" t="n"/>
-      <c r="M9" s="90" t="n"/>
+      <c r="I9" s="88" t="inlineStr">
+        <is>
+          <t>545,472,658.14</t>
+        </is>
+      </c>
+      <c r="J9" s="88" t="inlineStr">
+        <is>
+          <t>110,159.38</t>
+        </is>
+      </c>
+      <c r="K9" s="88" t="inlineStr">
+        <is>
+          <t>131,297,359.41</t>
+        </is>
+      </c>
+      <c r="L9" s="88" t="inlineStr">
+        <is>
+          <t>414,285,458.11</t>
+        </is>
+      </c>
+      <c r="M9" s="90" t="inlineStr">
+        <is>
+          <t>130,747,474.00</t>
+        </is>
+      </c>
       <c r="N9" s="69" t="n"/>
       <c r="O9" s="8" t="n"/>
       <c r="P9" s="8" t="n"/>
@@ -7977,11 +5976,31 @@
       <c r="F10" s="65" t="n"/>
       <c r="G10" s="65" t="n"/>
       <c r="H10" s="65" t="n"/>
-      <c r="I10" s="88" t="n"/>
-      <c r="J10" s="88" t="n"/>
-      <c r="K10" s="88" t="n"/>
-      <c r="L10" s="88" t="n"/>
-      <c r="M10" s="66" t="n"/>
+      <c r="I10" s="88" t="inlineStr">
+        <is>
+          <t>53,919,558,770.43</t>
+        </is>
+      </c>
+      <c r="J10" s="88" t="inlineStr">
+        <is>
+          <t>190,705,766.27</t>
+        </is>
+      </c>
+      <c r="K10" s="88" t="inlineStr">
+        <is>
+          <t>79,391,537.06</t>
+        </is>
+      </c>
+      <c r="L10" s="88" t="inlineStr">
+        <is>
+          <t>54,030,872,999.64</t>
+        </is>
+      </c>
+      <c r="M10" s="66" t="inlineStr">
+        <is>
+          <t>116,934,952.79</t>
+        </is>
+      </c>
       <c r="N10" s="67" t="n"/>
       <c r="O10" s="8" t="n"/>
       <c r="P10" s="8" t="n"/>
@@ -8001,11 +6020,31 @@
       <c r="F11" s="65" t="n"/>
       <c r="G11" s="65" t="n"/>
       <c r="H11" s="65" t="n"/>
-      <c r="I11" s="88" t="n"/>
-      <c r="J11" s="88" t="n"/>
-      <c r="K11" s="88" t="n"/>
-      <c r="L11" s="88" t="n"/>
-      <c r="M11" s="66" t="n"/>
+      <c r="I11" s="88" t="inlineStr">
+        <is>
+          <t>34,100,760,580.49</t>
+        </is>
+      </c>
+      <c r="J11" s="88" t="inlineStr">
+        <is>
+          <t>116,509,869.96</t>
+        </is>
+      </c>
+      <c r="K11" s="88" t="inlineStr">
+        <is>
+          <t>191,298,987.28</t>
+        </is>
+      </c>
+      <c r="L11" s="88" t="inlineStr">
+        <is>
+          <t>34,025,971,463.17</t>
+        </is>
+      </c>
+      <c r="M11" s="66" t="inlineStr">
+        <is>
+          <t>120,933,587.28</t>
+        </is>
+      </c>
       <c r="N11" s="69" t="n"/>
       <c r="O11" s="8" t="n"/>
       <c r="P11" s="8" t="n"/>
@@ -8025,11 +6064,31 @@
       <c r="F12" s="65" t="n"/>
       <c r="G12" s="65" t="n"/>
       <c r="H12" s="65" t="n"/>
-      <c r="I12" s="88" t="n"/>
-      <c r="J12" s="88" t="n"/>
-      <c r="K12" s="88" t="n"/>
-      <c r="L12" s="88" t="n"/>
-      <c r="M12" s="90" t="n"/>
+      <c r="I12" s="88" t="inlineStr">
+        <is>
+          <t>1,725,882.00</t>
+        </is>
+      </c>
+      <c r="J12" s="88" t="inlineStr">
+        <is>
+          <t>383,493.00</t>
+        </is>
+      </c>
+      <c r="K12" s="88" t="inlineStr">
+        <is>
+          <t>1,200,000.00</t>
+        </is>
+      </c>
+      <c r="L12" s="88" t="inlineStr">
+        <is>
+          <t>909,375.00</t>
+        </is>
+      </c>
+      <c r="M12" s="90" t="inlineStr">
+        <is>
+          <t>383,493.00</t>
+        </is>
+      </c>
       <c r="N12" s="69" t="n"/>
       <c r="O12" s="8" t="n"/>
       <c r="P12" s="8" t="n"/>
